--- a/calls.xlsx
+++ b/calls.xlsx
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>https://cloudphone.tatateleservices.com/file/recording?callId=1752055968.539653&amp;type=rec&amp;token=YWNZSnlOSnhuVzBtYnR0ek1xZlpnK25nMDgzZENlejhKdFA2cEoxYndlNHpYNWEySnZrZEtNS28zZjRUc25kUDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
+  </si>
+  <si>
+    <t>recording_url</t>
   </si>
 </sst>
 </file>
@@ -469,7 +472,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15"/>
@@ -480,59 +483,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -550,18 +533,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>27</v>
+      <c r="A11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>28</v>
+      <c r="A12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>29</v>
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/calls.xlsx
+++ b/calls.xlsx
@@ -1,10 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
@@ -14,197 +11,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>good_url</t>
-  </si>
-  <si>
-    <t>bad_url</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>recording_url</t>
   </si>
   <si>
     <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764677140.2065693&amp;type=rec&amp;token=K0YxM29LM1hkUnZrcWZiYXl2a0JUTTE5emNjWWF3cE5EdXhlNjJsaEV0SGowUC9McFlMeUdpcDVwb3dxSDEwNTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
   </si>
   <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764583885.70929&amp;type=rec&amp;token=b2cyUVRxZWJlOERTS09IaDJkN3lubW1YZzBiVUZCUzNHU1NpMEhsS0E0R1RxckZsdEUvTDllTGFYOVlFSmQzUjo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764669530.194451&amp;type=rec&amp;token=WVVzMWRFNlIxc1djbFp4MzhHQzBORjd3dHhpZmhnVDhZQWExVjV4U3k5bXIxZDhWeHRGdGJHbW03Z1ZSc3d1bzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
   </si>
   <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764567970.11598&amp;type=rec&amp;token=NDJ6cFAzR1FCTm5UNmxSSmdYQUl4eGRmMFgxRUNjQjBNUDN2VkxscEpDR1JXRlJ3bWZHZ1I5TXZpM2RudVlqVDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764681053.879084&amp;type=rec&amp;token=OWZqMTVoNkgxdGt4QkdCL2duKzdzcXhUYmF2RHVpRTdMYUQrMzBIVWttdXd2d2k2NmV0UXlvSDQ4ck0xYWkwUTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764571674.1038547&amp;type=rec&amp;token=S2dNdWp1aEZJbnpjU05LRG1JM3AvS0s0ZFJBdEI0S3ZXeU51WFVKbHlyTklYN0hONmdjOEJ3MXJhRGZsQjVVKzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764655955.828742&amp;type=rec&amp;token=SXZlc0pvZ01Xa3NRZkNBcUtwVnZFUEVSeEhCZDlQTUVZNmtWekIzc1VMYUNtTmQxNUZqTlZIMVMzV2tndTZyazo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764573603.46856&amp;type=rec&amp;token=UkgreFpaVlg5MVQxZjZrb3V5RE1HWDZ2WnBHd1ZjcHRJUUptVUJTUUxTTFVobjRoVGpQTkx5OFhOZFZiczROdTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
   </si>
   <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764655117.140414&amp;type=rec&amp;token=UnFYS3N6VUI0MmZCemNEOUIwQkdCNUpNOVRoN2JFRXJNTlV0MkZmUng1VzRobUl4eEdFY2VtUkhoeVJxTlk2Vzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764575297.47725&amp;type=rec&amp;token=ZklOMVlOVHo5WENCWmEwMWVIWktBVjN1b0hXekcwNDNnMStGTkM2UXdMalk1UHJycWVoMExPQk5wSWdOSk5aOTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
   </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764572915.39734&amp;type=rec&amp;token=RFNqMzhVL01iUEdqVlozS3BkU2FwUHlUcEVvbDFUak1FK0g1dVB1SW1obHFqeUxJa2IzNjRwNWJ0UlNlSmdaZjo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764585239.785651&amp;type=rec&amp;token=N3ZTRFdMRFdjUm1mTmNraGdTUVJpSG9wbFRQVmt6VWl0c0d4dWhQckRrUVFSRGMxUU1rbXpoVUxHYi9iK1ZpVzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764581931.66517&amp;type=rec&amp;token=R2dWeUFxbGlYNnVONWZPNVcvaHZSdDdQN1Fnbm1hanJsSXMreURNSXZMWXJQYUlKSzk0V3dQdGtMd0pydENXSzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1764585453.89206&amp;type=rec&amp;token=M1FUemxJRzlqMXJmaUk4cGlxdkY2dW5keFBOa0pnQ3ZUeVRjeWk4dlZDVVFJVG5MOGpWc20wS09XZ3d2V1pPMjo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1763532921.300523&amp;type=rec&amp;token=Z1h1anVVV1ovbGhUWXozQlRiNnV3UUwxRVBCUy9VYmJOR2N3TS82WXpQK2Z2TWhwSjZ4RDk2Lys0MlJhS3p3aTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763535151.52354&amp;type=rec&amp;token=Qk9IMFpiam5BejBmWTJzMkUwNGp3ZHZneWdxcG9rc2JDMDVjWnJSc0JPd0V2ZkFGNnVOREFzeUNOYmIwU3BhcDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763558792.66296&amp;type=rec&amp;token=WTBtdHFCaTk2QXlaYVpWQmVia1MyQVh2M0V6MGpoTXVXWUJBd0VGd3JmYUtLMkhuaFdEWXpMd2EwRDR5NCtDRjo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763536989.305082&amp;type=rec&amp;token=WXFadG5kN3pqQnh5RksvaEN6dHdUdE5iaysvQ083MkJCMWNuQk02WTN5MkJxVHltenlIK3RlUzF4YnpKWituRzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763539442.326764&amp;type=rec&amp;token=UUsrNlNxUVVwcStFdFhYd25xT1Flek5nOVByeXhyM3U2RXJiVjlGNnZqZ1pYeHVMc0VEZjhXdkdHd3N3SDhQeTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763548679.346470&amp;type=rec&amp;token=bnRaLy9XeUsvZDJwWkI0WEdoa2RYOHM2d29qMXZ3d3BpZGtzRkVHcEV2eXBlNEJ1S0hjYmExWXgvcWl1KzF6ajo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763553288.381735&amp;type=rec&amp;token=MkhvSGFPVXB5ckMwcytxdlRMWW9WSmtNcWtFMGp0UDA5SzNzSGllNGRlM2FnRVBTTWczaUF6aStSOVZZNmNCRzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763467248.478455&amp;type=rec&amp;token=clJLTW9NN0p0M2FTL0pxbGRlZW0wbFJSdWtHNCtZS0hDeTYreTY3MHdJZXlFY2tHaTZ5MkVuR29VdFZTRlZldDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763466841.214441&amp;type=rec&amp;token=cEhhNmN1UHZvb05FcXIxb2k1bFV4V0d4T2tpbm9CWmRmL3FGSFEzK0ZyZ2JxQ2puS2ovQ1lyWWFUY3htNjdOeTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763444414.69694&amp;type=rec&amp;token=dnVqRStvbTREMzVpc1h5YXdWdUVSWUVUNGx2d2pHVXhoL0Z3SEVSN0JSbEcySmdRdVhmRmFTRGRUeER0UmEvNjo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763443975.69584&amp;type=rec&amp;token=RE9Cb1hSdU5sbG9VNFh4MDdLR01BL1h0MXhWRUU0TzJUeDRSOUpPdzBOT1dPbkE3NlBEdjhJS0VkQ1VZUGFKQzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763449910.154287&amp;type=rec&amp;token=QnBZVkxDeE0ySjNKV1lxSS82MmRPVUFwS2ZreWUvNGdHaVZ6MTluQXV6UEMzWWxuYXA1TkliTHJUNlkrSG9HSTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763471986.232738&amp;type=rec&amp;token=NlRIK3Npb08zYk1IMGhlTUkveldqR1dYQmFhRjA1RDdiRU1NTEhtQmhZZFJnZ0tBM0pyZWt2bVBFWlB5WE45WDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763469905.235533&amp;type=rec&amp;token=RGJ1VzdKRTlieUN5L2V1QmFoOUJzWTBucGl2UjQvZlA2WGtaQVk0aGlpYUhTSjFUemxrYnhoaVg4SW1rUUhCSTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1763444623.70342&amp;type=rec&amp;token=V1hGektVVlNLNlRuR25QYXBLSCs5QXgxWFBKZm03V1lVK0lrenNnV3NSL2dLeUErbmJNT3JtSjBUTTVnNGxSajo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1763532921.300523&amp;type=rec&amp;token=Z1h1anVVV1ovbGhUWXozQlRiNnV3UUwxRVBCUy9VYmJOR2N3TS82WXpQK2Z2TWhwSjZ4RDk2Lys0MlJhS3p3aTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1763535151.52354&amp;type=rec&amp;token=Qk9IMFpiam5BejBmWTJzMkUwNGp3ZHZneWdxcG9rc2JDMDVjWnJSc0JPd0V2ZkFGNnVOREFzeUNOYmIwU3BhcDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1763558792.66296&amp;type=rec&amp;token=WTBtdHFCaTk2QXlaYVpWQmVia1MyQVh2M0V6MGpoTXVXWUJBd0VGd3JmYUtLMkhuaFdEWXpMd2EwRDR5NCtDRjo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1763536989.305082&amp;type=rec&amp;token=WXFadG5kN3pqQnh5RksvaEN6dHdUdE5iaysvQ083MkJCMWNuQk02WTN5MkJxVHltenlIK3RlUzF4YnpKWituRzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1763539442.326764&amp;type=rec&amp;token=UUsrNlNxUVVwcStFdFhYd25xT1Flek5nOVByeXhyM3U2RXJiVjlGNnZqZ1pYeHVMc0VEZjhXdkdHd3N3SDhQeTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1763548679.346470&amp;type=rec&amp;token=bnRaLy9XeUsvZDJwWkI0WEdoa2RYOHM2d29qMXZ3d3BpZGtzRkVHcEV2eXBlNEJ1S0hjYmExWXgvcWl1KzF6ajo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1763553288.381735&amp;type=rec&amp;token=MkhvSGFPVXB5ckMwcytxdlRMWW9WSmtNcWtFMGp0UDA5SzNzSGllNGRlM2FnRVBTTWczaUF6aStSOVZZNmNCRzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1763467248.478455&amp;type=rec&amp;token=clJLTW9NN0p0M2FTL0pxbGRlZW0wbFJSdWtHNCtZS0hDeTYreTY3MHdJZXlFY2tHaTZ5MkVuR29VdFZTRlZldDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1763466841.214441&amp;type=rec&amp;token=cEhhNmN1UHZvb05FcXIxb2k1bFV4V0d4T2tpbm9CWmRmL3FGSFEzK0ZyZ2JxQ2puS2ovQ1lyWWFUY3htNjdOeTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1761287768.96796&amp;type=rec&amp;token=dHAxMUpXSWh0UEN4SDNVc2ljRDFVSGNWTGVPbzYxNmw3TmNNdWRCd1NLcUZIdVR6MUZhYTRxTE5JYUtHT2h4Zjo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1761219356.220765&amp;type=rec&amp;token=Qnd6aDJBSkZYTDNvTzlBa2w4cHJCZ0VNL1E4empQaENaVGVONU5BYlJjN2FRUDV1MVdPNVdJQXFLU1dYOTkzUzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1761117412.175696&amp;type=rec&amp;token=VEVIcE92UnhjaEgzdWN6WG5tbFh2WkRUN2RGZkdBRmkxQUlVMWZzQXM2S0VkMTFWTkdhRmtOSlJ1NXRoRjliODo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1761113596.172282&amp;type=rec&amp;token=dWdUTU14WjFvak1xZnUzcFlSR1NtKzU1V2xSbGUxZU5yL05jaG51dFFSQ1lSaFp3RHlES3RKOFd1ZGlWVTM0YTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1758962341.1131930&amp;type=rec&amp;token=REY0dnQ4MlpPaGNWcDNCUmVoMnJqTkM5QmZBdCt6Skx3SUtuQkdvUzZ3OU5IRzY2UHhjSWdLR3BKV3VBd0tnbTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1758949314.996154&amp;type=rec&amp;token=REJlTWhrbUJhV3BOQ0MvaXNESnJKamMwMllsdEhhSDF4NWNtalBEdENQNFhKZ2hMeExYWEZwRFgxRWUwSnExTzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1758951626.1049589&amp;type=rec&amp;token=RGdsR0tKTWRDVzBzNm44SkJyd2cvUXl2cVJIZ3lCYkovVCtrTXlZOXk0WlNJNVlzSlg5YmxxWEtxUkNWSWZ1ODo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1758947946.1012802&amp;type=rec&amp;token=NW01NUNQQjZtc1hvQXowYitoaXkxVk5LVWtKYlh3NS9nalFBTzFLdVVNY0xMa2E4TGNWVk5SYklZU2NSQ1pWTDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1758978568.17780&amp;type=rec&amp;token=c3NzSXNPZm14WTE3a09CYk5VRjhlSVl0TENYT3NlcTJsVlJnemJ4MjZtSW1wYi92eEs0UlNDUmFpZEd1dy9iTDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1758959877.1033862&amp;type=rec&amp;token=RGtDVnhYVFRUUCtLTndreFkyTlAyOHEvZkorQ2F6eWtRYUc1N2JrUU8wajJHclY2N1lLNldwaDlvSzhrZGZhWTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1758962164.1076239&amp;type=rec&amp;token=MytLVkZzVHR2WmFKQWNnMVpsY0RTTldpK2pLdHFwZ0JnY3hPMGt1VTJ4YlNqeHl5S0VvOXFlZ282WCtHV2F4Rzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1758961742.1040791&amp;type=rec&amp;token=bzZacVJqSTdkWVMvUGJTRGRZclpKeHJCQVB3cHRXb3pzek1TVStTT1JCcHpvTGNMMVl3ZG1VWXhLa25ZNjFKVjo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D
-https://cloudphone.tatateleservices.com/file/recording?callId=1758959988.1068987&amp;type=rec&amp;token=K2puVk5keHJjVm1VbTkvSWZ5TE4vUnlXZk84cmhpZFJueXNGcllZMHQyM0ZLUFUzTlptNmpNZC80U0J5b0hIaTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1758962341.1131930&amp;type=rec&amp;token=REY0dnQ4MlpPaGNWcDNCUmVoMnJqTkM5QmZBdCt6Skx3SUtuQkdvUzZ3OU5IRzY2UHhjSWdLR3BKV3VBd0tnbTo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1758949314.996154&amp;type=rec&amp;token=REJlTWhrbUJhV3BOQ0MvaXNESnJKamMwMllsdEhhSDF4NWNtalBEdENQNFhKZ2hMeExYWEZwRFgxRWUwSnExTzo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1758951626.1049589&amp;type=rec&amp;token=RGdsR0tKTWRDVzBzNm44SkJyd2cvUXl2cVJIZ3lCYkovVCtrTXlZOXk0WlNJNVlzSlg5YmxxWEtxUkNWSWZ1ODo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1758947946.1012802&amp;type=rec&amp;token=NW01NUNQQjZtc1hvQXowYitoaXkxVk5LVWtKYlh3NS9nalFBTzFLdVVNY0xMa2E4TGNWVk5SYklZU2NSQ1pWTDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1758978568.17780&amp;type=rec&amp;token=c3NzSXNPZm14WTE3a09CYk5VRjhlSVl0TENYT3NlcTJsVlJnemJ4MjZtSW1wYi92eEs0UlNDUmFpZEd1dy9iTDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://cloudphone.tatateleservices.com/file/recording?callId=1752055968.539653&amp;type=rec&amp;token=YWNZSnlOSnhuVzBtYnR0ek1xZlpnK25nMDgzZENlejhKdFA2cEoxYndlNHpYNWEySnZrZEtNS28zZjRUc25kUDo6YWIxMjM0Y2Q1NnJ0eXl1dQ%3D%3D</t>
-  </si>
-  <si>
-    <t>recording_url</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <b/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
-      <color rgb="FF1155CC"/>
-      <sz val="12"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b/>
-      <strike/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <strike/>
-      <color rgb="FF1155CC"/>
-      <sz val="12"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <strike/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,49 +62,24 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -466,98 +284,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="77.21" style="9" customWidth="1"/>
-    <col min="2" max="2" width="48.38" customWidth="1"/>
-  </cols>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
+      <c r="A2" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
+      <c r="A3" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A11" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId15"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+    <hyperlink r:id="rId4" ref="A5"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>